--- a/static/img/logo.xlsx
+++ b/static/img/logo.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u.isazhan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\repos\korshiles\static\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F47FA-BF06-43F9-9731-F1677DAA2322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147EDD2-CBEF-4E44-83B1-348E76533748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="3180" windowWidth="7200" windowHeight="11415" xr2:uid="{D5EB7962-FF30-4317-BC7E-7FE01F0EE3A6}"/>
+    <workbookView xWindow="17670" yWindow="1695" windowWidth="10500" windowHeight="12375" xr2:uid="{D5EB7962-FF30-4317-BC7E-7FE01F0EE3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -407,7 +413,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>48</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,7 +440,7 @@
       </c>
       <c r="B4">
         <f>B1/2</f>
-        <v>24</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,7 +449,7 @@
       </c>
       <c r="B5">
         <f>B2/2</f>
-        <v>24</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,8 +457,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>B1/2.5</f>
-        <v>19.2</v>
+        <f>B1/2</f>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,8 +466,8 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <f>B1/3.2</f>
-        <v>15</v>
+        <f>B1/2</f>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,8 +475,8 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <f>B2/5.3</f>
-        <v>9.0566037735849054</v>
+        <f>B2/3.2</f>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +485,7 @@
       </c>
       <c r="B10">
         <f>(B1-B8)/2</f>
-        <v>16.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +494,7 @@
       </c>
       <c r="B11">
         <f>B2/2</f>
-        <v>24</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,8 +502,8 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <f>B1/32</f>
-        <v>1.5</v>
+        <f>B1/20</f>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,11 +512,11 @@
       </c>
       <c r="B15">
         <f>B1/2</f>
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="C15">
-        <f>B2/3.2</f>
-        <v>15</v>
+        <f>B2/5</f>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,11 +525,11 @@
       </c>
       <c r="B16">
         <f>B10-B14</f>
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <f>B2/2</f>
-        <v>24</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,11 +538,11 @@
       </c>
       <c r="B17">
         <f>B10+B8+B14</f>
-        <v>33</v>
+        <v>640</v>
       </c>
       <c r="C17">
         <f>B2/2</f>
-        <v>24</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,8 +550,8 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f>B1/160</f>
-        <v>0.3</v>
+        <f>B1/80</f>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,8 +559,8 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <f>B1/25</f>
-        <v>1.92</v>
+        <f>B1/16</f>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,11 +569,11 @@
       </c>
       <c r="B22">
         <f>B1/2-B21-B20</f>
-        <v>21.779999999999998</v>
+        <v>340</v>
       </c>
       <c r="C22">
         <f>B2/2+B21*2</f>
-        <v>27.84</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,11 +582,11 @@
       </c>
       <c r="B23">
         <f>B1/2+B20</f>
-        <v>24.3</v>
+        <v>410</v>
       </c>
       <c r="C23">
         <f>B2/2+B21*2</f>
-        <v>27.84</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,11 +595,11 @@
       </c>
       <c r="B24">
         <f>B1/2-B21-B20</f>
-        <v>21.779999999999998</v>
+        <v>340</v>
       </c>
       <c r="C24">
         <f>B2/2+B21-B20*2</f>
-        <v>25.32</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,11 +608,11 @@
       </c>
       <c r="B25">
         <f>B1/2+B20</f>
-        <v>24.3</v>
+        <v>410</v>
       </c>
       <c r="C25">
         <f>B2/2+B21-B20*2</f>
-        <v>25.32</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +621,7 @@
       </c>
       <c r="B28">
         <f>B1/40</f>
-        <v>1.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,12 +629,12 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <f>B1/2.5</f>
-        <v>19.2</v>
+        <f>B1/3.2</f>
+        <v>250</v>
       </c>
       <c r="C29">
-        <f>B2/2.8</f>
-        <v>17.142857142857142</v>
+        <f>B2/4</f>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,12 +642,12 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <f>B1/2.5+B28</f>
-        <v>20.399999999999999</v>
+        <f>B1/3.2+B28</f>
+        <v>270</v>
       </c>
       <c r="C30">
-        <f>B2/2.8</f>
-        <v>17.142857142857142</v>
+        <f>B2/4</f>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,12 +655,12 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <f>B1/2.5+B28</f>
-        <v>20.399999999999999</v>
+        <f>B1/3.2+B28</f>
+        <v>270</v>
       </c>
       <c r="C31">
         <f>B2/2.5</f>
-        <v>19.2</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,12 +668,12 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <f>B1/2.5</f>
-        <v>19.2</v>
+        <f>B1/3.2</f>
+        <v>250</v>
       </c>
       <c r="C32">
         <f>B2/2.5+B28</f>
-        <v>20.399999999999999</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
